--- a/classfiers/greedy/elm/chatty_elm_lin_results.xlsx
+++ b/classfiers/greedy/elm/chatty_elm_lin_results.xlsx
@@ -485,10 +485,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -502,10 +502,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -519,13 +519,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9938725490196078</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -555,13 +555,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8833333333333332</v>
+        <v>0.5916666666666666</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9314285714285713</v>
+        <v>0.7138528138528139</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.9987745098039216</v>
       </c>
     </row>
   </sheetData>
